--- a/eval/hyperfinestructure_fit.xlsx
+++ b/eval/hyperfinestructure_fit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>file</t>
   </si>
@@ -29,9 +29,6 @@
     <t>lorentzian1_gamma</t>
   </si>
   <si>
-    <t>lorentzian1_off</t>
-  </si>
-  <si>
     <t>lorentzian2_amp</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>lorentzian2_gamma</t>
   </si>
   <si>
-    <t>lorentzian2_off</t>
-  </si>
-  <si>
     <t>lorentzian3_amp</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>lorentzian3_gamma</t>
   </si>
   <si>
-    <t>lorentzian3_off</t>
-  </si>
-  <si>
     <t>lorentzian4_amp</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>lorentzian4_gamma</t>
   </si>
   <si>
-    <t>lorentzian4_off</t>
-  </si>
-  <si>
     <t>lorentzian5_amp</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
     <t>lorentzian5_gamma</t>
   </si>
   <si>
-    <t>lorentzian5_off</t>
-  </si>
-  <si>
     <t>lorentzian6_amp</t>
   </si>
   <si>
@@ -89,7 +74,10 @@
     <t>lorentzian6_gamma</t>
   </si>
   <si>
-    <t>lorentzian6_off</t>
+    <t>linear1_intercept</t>
+  </si>
+  <si>
+    <t>linear1_slope</t>
   </si>
   <si>
     <t>lorentzian1_amp_err</t>
@@ -101,9 +89,6 @@
     <t>lorentzian1_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian1_off_err</t>
-  </si>
-  <si>
     <t>lorentzian2_amp_err</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>lorentzian2_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian2_off_err</t>
-  </si>
-  <si>
     <t>lorentzian3_amp_err</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>lorentzian3_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian3_off_err</t>
-  </si>
-  <si>
     <t>lorentzian4_amp_err</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>lorentzian4_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian4_off_err</t>
-  </si>
-  <si>
     <t>lorentzian5_amp_err</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>lorentzian5_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian5_off_err</t>
-  </si>
-  <si>
     <t>lorentzian6_amp_err</t>
   </si>
   <si>
@@ -161,7 +134,10 @@
     <t>lorentzian6_gamma_err</t>
   </si>
   <si>
-    <t>lorentzian6_off_err</t>
+    <t>linear1_intercept_err</t>
+  </si>
+  <si>
+    <t>linear1_slope_err</t>
   </si>
   <si>
     <t>redchi</t>
@@ -525,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,613 +636,437 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.0008336848305210475</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.896779404212982</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01137303697288193</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0002886910284871043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.914605434245749</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.007146818953910464</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0008114022657794586</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.931503601783663</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.008061658777642689</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0009984377455170125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.948465084724863</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01074982228082046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0006535070233352628</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.98229835985535</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01479543635577664</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0001864031906614471</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.02539057153529</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.838701684932295e-05</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.04832521657664661</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.0111268550022079</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.307825615562818e-05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0004300367171533691</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0006633541458040702</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.896000573787924e-05</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.000500583980969219</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.00128597090120293</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9.169131836205197e-05</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0002421089696993937</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0006540105081991356</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.660088260807565e-05</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0003857595941288586</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0006720786359959003</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.01341661988706e-05</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0005511987795180012</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.001021754438013966</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.3293086129280411</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0002138635921014429</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.05520980922587478</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.004445769071103667</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.001100174704404182</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>9.474032796561869e-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>8.024848813134659e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.394639229328613</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00442089163933245</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0001472893718607044</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.431087479366746</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006054669258681473</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0006527934755878973</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.463472196373157</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007083050336502071</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001204579068889114</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.499783180063754</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.007704969172688361</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0001068564099503672</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.566710628589149</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.006815755830255923</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.799255277921308</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.03576384957197</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.168965687219433</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-4.280208700223645</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.330451333137921</v>
+      </c>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="s"/>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s"/>
+      <c r="AF3" t="s"/>
+      <c r="AG3" t="s"/>
+      <c r="AH3" t="s"/>
+      <c r="AI3" t="s"/>
+      <c r="AJ3" t="s"/>
+      <c r="AK3" t="s"/>
+      <c r="AL3" t="s"/>
+      <c r="AM3" t="s"/>
+      <c r="AN3" t="s"/>
+      <c r="AO3" t="s"/>
+      <c r="AP3" t="n">
+        <v>7.184796090114399e-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>2.976454284770066e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.142408064248079</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00739336585814528</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001706700459607852</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.182915019166891</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01005226104701297</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0003532930235772369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.224554393280888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0149716829239028</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0003646927966417824</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.271003057250651</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01284201815012635</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0008083623618671571</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.313015565872378</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01500789050336224</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0005511846090651258</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.399554409802607</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.02220680452500553</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.000754216537748074</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-9.61789701010297e-05</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.852188234041096e-05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.003163413669776002</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.005398308823691928</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.487999941631456e-05</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0009171205102526086</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.001645026652417397</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3.742528092209854e-05</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0008587050799704423</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001717389279665275</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.539301181339951e-05</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0006646364603338841</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.001312397581340711</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.444541442221502e-05</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.000375591813400174</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0006782460774090326</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.129450124796678e-05</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0009055629268288083</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.001875942549024863</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.005131169754272183</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0008324089460685556</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9.192079260832161e-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.00120473254620977</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.897733157694515</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01530017394931111</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1773.49175026161</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.0001716271941290391</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.915354200496763</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.005461916559738164</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70.74585939558857</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0008315192179440959</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.931471878697338</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.008184590090238971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2867.048709284621</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.001002908210589417</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.948484104023701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.01073837566525162</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-356.0767261532839</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.000726918972115314</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.982286828600066</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.01580159076498713</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-6257.071992492023</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.352144695606345e-05</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.025395206444194</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0006580369069237695</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1901.865347770169</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.0001053380989840818</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0007585585241082439</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.001069180515941251</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4524.959006296568</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.043221268718627e-05</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.0007078181563616562</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.00171106595030556</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>471.7175376554211</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.000122928431207535</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.0003494212758515143</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0008990289791651617</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>4968.466812156536</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0001279543316977732</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.0005479802882960661</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.0009900957529693226</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2935.778993181125</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>8.179744078360228e-05</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0008353442161122672</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.001560781798449077</v>
-      </c>
-      <c r="AS2" t="s"/>
-      <c r="AT2" t="n">
-        <v>2.454415402285658e-05</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.0003521248324194255</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.003632657017705516</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>2457.867490538723</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.985277659268457e-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0009944106191413114</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.394163076835566</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02040992118055671</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1886.89484845736</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0007029567265798941</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.431495917792457</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.01414384229609739</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13386.37085950038</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.001047343932520713</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.463542321550003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.009383752243922501</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-7930.43131735071</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.001389729768812638</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.499575185584584</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.008391881122556627</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1787.720348203347</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.01005286926728766</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.543900859318144</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.1120888452309753</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-9130.564831128228</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0001425836357945572</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.0008947875115476727</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.002405738579030013</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4382.203101603401</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.0001118424380586786</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.0006073775442483105</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.001684164654324643</v>
-      </c>
-      <c r="AG3" t="s"/>
-      <c r="AH3" t="n">
-        <v>3.45390210165031e-05</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.0001699933729958544</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.0003323214868365928</v>
-      </c>
-      <c r="AK3" t="s"/>
-      <c r="AL3" t="n">
-        <v>4.158062370536739e-05</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.000100233800673478</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.0002460446184004536</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3327.569372374151</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.0001328565908174158</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.002957746027680638</v>
-      </c>
-      <c r="AR3" t="s"/>
-      <c r="AS3" t="s"/>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1.5417129944753e-06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.287013697839908e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.142209256832174</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.007481256827707901</v>
-      </c>
-      <c r="E4" t="n">
-        <v>713.4868235624302</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0001744901771372424</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.182969562427645</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01024118305411615</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2505.569385663801</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0003483867951538443</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.224504375577113</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01470099659545219</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-715.8882328607848</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0003715457718996805</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.270986457059168</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.01307625806856447</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2079.894048449173</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0008056507328858057</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.313040982173775</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.01494504809133584</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6682.976401543204</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0005495705226219581</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.399544621673729</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.02209354458140026</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>-11266.03828718947</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.563606394122246e-05</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.003379356915030206</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.003805253871750419</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2232.724850805901</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.372463351575e-05</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.0009231432438284313</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.001545008742422495</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>3789.645045317052</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3.534353405485742e-05</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.000862051075448157</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.001643148239305443</v>
-      </c>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="n">
-        <v>3.426738722238191e-05</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0006824943746361862</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.001312874852925797</v>
-      </c>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="n">
-        <v>3.386706002218752e-05</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.0003782004435490457</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.0006779331516094783</v>
-      </c>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="n">
-        <v>3.821650097678139e-05</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.0009245226007066967</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.001646307241749643</v>
-      </c>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="n">
-        <v>9.396809284138094e-07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B5" t="n">
-        <v>1.155694521664921</v>
+        <v>0.0002058734943114421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2577641922517188</v>
+        <v>0.08183537207033428</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12961197162312</v>
+        <v>0.01011158444507316</v>
       </c>
       <c r="E5" t="n">
-        <v>-3061.17128849718</v>
+        <v>0.000154122086097032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001340233433245879</v>
+        <v>0.1713948612279129</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1712760823038941</v>
+        <v>0.007277959462567383</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006501505691249699</v>
+        <v>0.0003942150544808948</v>
       </c>
       <c r="I5" t="n">
-        <v>7640.71869404297</v>
+        <v>0.2343693381908824</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003438790954653867</v>
+        <v>0.0086881408456203</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2343262827406506</v>
+        <v>0.001107308075793214</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007719758270714917</v>
+        <v>0.3214151929426454</v>
       </c>
       <c r="M5" t="n">
-        <v>6400.518751032679</v>
+        <v>0.008427534115324086</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001077940464800894</v>
+        <v>0.0001569398230765754</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3214465300116741</v>
+        <v>0.4711105085601202</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008246692721867614</v>
+        <v>0.007247255530060918</v>
       </c>
       <c r="Q5" t="n">
-        <v>-12451.67721918255</v>
+        <v>106.8905856308615</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0004275892922325391</v>
+        <v>-1.085164033832905</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4753438986215852</v>
+        <v>4.588157869219866</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01874805297069447</v>
+        <v>-7.030633244016264</v>
       </c>
       <c r="U5" t="n">
-        <v>1471.29321561231</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.1861230532793666</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.002477719057565701</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.08453756575523427</v>
-      </c>
+        <v>0.8041323545363612</v>
+      </c>
+      <c r="V5" t="s"/>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+      <c r="Z5" t="s"/>
+      <c r="AA5" t="s"/>
+      <c r="AB5" t="s"/>
       <c r="AC5" t="s"/>
-      <c r="AD5" t="n">
-        <v>1.780338253424992e-05</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.0006115052696660671</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.001001608852936525</v>
-      </c>
+      <c r="AD5" t="s"/>
+      <c r="AE5" t="s"/>
+      <c r="AF5" t="s"/>
       <c r="AG5" t="s"/>
-      <c r="AH5" t="n">
-        <v>2.176711119957384e-05</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.000304685369420709</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.0005425150204735867</v>
-      </c>
+      <c r="AH5" t="s"/>
+      <c r="AI5" t="s"/>
+      <c r="AJ5" t="s"/>
       <c r="AK5" t="s"/>
-      <c r="AL5" t="n">
-        <v>2.115872826469899e-05</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.000108181612609732</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.0001857858142093728</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3607.313925609851</v>
-      </c>
+      <c r="AL5" t="s"/>
+      <c r="AM5" t="s"/>
+      <c r="AN5" t="s"/>
+      <c r="AO5" t="s"/>
       <c r="AP5" t="n">
-        <v>8.427484195950378e-05</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.001019383530995702</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.002762639677563306</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3995.062683004783</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1.12592312446009e-06</v>
+        <v>9.97672439482045e-07</v>
       </c>
     </row>
   </sheetData>
